--- a/config_6.22/fish_boss_yutu_random_2.xlsx
+++ b/config_6.22/fish_boss_yutu_random_2.xlsx
@@ -218,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -251,53 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -327,7 +289,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +358,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,51 +386,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,19 +415,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,55 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,103 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,44 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,16 +651,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,8 +668,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +697,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -728,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,133 +740,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1501,7 +1501,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H14"/>
+      <selection activeCell="H10" sqref="H10:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1696,10 +1696,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I10" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
@@ -1721,10 +1721,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I11" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1746,10 +1746,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I12" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
@@ -1771,10 +1771,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I13" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
@@ -1796,10 +1796,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="I14" s="4">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.22/fish_boss_yutu_random_2.xlsx
+++ b/config_6.22/fish_boss_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>no</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>128,129,130,</t>
+  </si>
+  <si>
+    <t>137</t>
   </si>
 </sst>
 </file>
@@ -218,9 +221,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -245,61 +248,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,23 +266,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,16 +280,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,12 +352,50 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -415,13 +418,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,19 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,139 +586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,17 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,6 +638,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,19 +675,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -706,32 +724,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,138 +743,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1498,10 +1501,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:I14"/>
+      <selection activeCell="H14" sqref="H14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1796,9 +1799,34 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4">
+        <v>1623167999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1623254399</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
         <v>1624320000</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I15" s="4">
         <v>1624895999</v>
       </c>
     </row>

--- a/config_6.22/fish_boss_yutu_random_2.xlsx
+++ b/config_6.22/fish_boss_yutu_random_2.xlsx
@@ -213,7 +213,7 @@
     <t>128,129,130,</t>
   </si>
   <si>
-    <t>137</t>
+    <t>137,</t>
   </si>
 </sst>
 </file>
@@ -221,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -248,40 +248,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,12 +279,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,83 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,25 +418,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,25 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,43 +562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,79 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -646,16 +661,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,21 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -701,17 +707,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1503,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
